--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2015403333333333</v>
+        <v>0.01846133333333333</v>
       </c>
       <c r="H2">
-        <v>0.6046210000000001</v>
+        <v>0.055384</v>
       </c>
       <c r="I2">
-        <v>0.05371480119195454</v>
+        <v>0.005172740524168673</v>
       </c>
       <c r="J2">
-        <v>0.05371480119195455</v>
+        <v>0.005172740524168674</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.188906999999999</v>
+        <v>8.488196666666667</v>
       </c>
       <c r="N2">
-        <v>15.566721</v>
+        <v>25.46459</v>
       </c>
       <c r="O2">
-        <v>0.02571200377994867</v>
+        <v>0.04138402976425696</v>
       </c>
       <c r="P2">
-        <v>0.02571200377994867</v>
+        <v>0.04138402976425696</v>
       </c>
       <c r="Q2">
-        <v>1.045774046415667</v>
+        <v>0.1567034280622222</v>
       </c>
       <c r="R2">
-        <v>9.411966417741001</v>
+        <v>1.41033085256</v>
       </c>
       <c r="S2">
-        <v>0.001381115171286727</v>
+        <v>0.0002140688478149745</v>
       </c>
       <c r="T2">
-        <v>0.001381115171286727</v>
+        <v>0.0002140688478149745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2015403333333333</v>
+        <v>0.01846133333333333</v>
       </c>
       <c r="H3">
-        <v>0.6046210000000001</v>
+        <v>0.055384</v>
       </c>
       <c r="I3">
-        <v>0.05371480119195454</v>
+        <v>0.005172740524168673</v>
       </c>
       <c r="J3">
-        <v>0.05371480119195455</v>
+        <v>0.005172740524168674</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>202.900665</v>
       </c>
       <c r="O3">
-        <v>0.3351369029761694</v>
+        <v>0.3297460182766552</v>
       </c>
       <c r="P3">
-        <v>0.3351369029761695</v>
+        <v>0.3297460182766552</v>
       </c>
       <c r="Q3">
-        <v>13.63088921921833</v>
+        <v>1.248605603373333</v>
       </c>
       <c r="R3">
-        <v>122.678002972965</v>
+        <v>11.23745043036</v>
       </c>
       <c r="S3">
-        <v>0.0180018121154523</v>
+        <v>0.001705690591422918</v>
       </c>
       <c r="T3">
-        <v>0.01800181211545231</v>
+        <v>0.001705690591422918</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2015403333333333</v>
+        <v>0.01846133333333333</v>
       </c>
       <c r="H4">
-        <v>0.6046210000000001</v>
+        <v>0.055384</v>
       </c>
       <c r="I4">
-        <v>0.05371480119195454</v>
+        <v>0.005172740524168673</v>
       </c>
       <c r="J4">
-        <v>0.05371480119195455</v>
+        <v>0.005172740524168674</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>386.958824</v>
       </c>
       <c r="O4">
-        <v>0.6391510932438819</v>
+        <v>0.6288699519590879</v>
       </c>
       <c r="P4">
-        <v>0.6391510932438819</v>
+        <v>0.6288699519590879</v>
       </c>
       <c r="Q4">
-        <v>25.99593679174489</v>
+        <v>2.381258612046222</v>
       </c>
       <c r="R4">
-        <v>233.963431125704</v>
+        <v>21.431327508416</v>
       </c>
       <c r="S4">
-        <v>0.03433187390521551</v>
+        <v>0.003252981084930781</v>
       </c>
       <c r="T4">
-        <v>0.03433187390521552</v>
+        <v>0.003252981084930781</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>5.884421</v>
       </c>
       <c r="I5">
-        <v>0.5227746044956465</v>
+        <v>0.5495916323842472</v>
       </c>
       <c r="J5">
-        <v>0.5227746044956465</v>
+        <v>0.5495916323842472</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.188906999999999</v>
+        <v>8.488196666666667</v>
       </c>
       <c r="N5">
-        <v>15.566721</v>
+        <v>25.46459</v>
       </c>
       <c r="O5">
-        <v>0.02571200377994867</v>
+        <v>0.04138402976425696</v>
       </c>
       <c r="P5">
-        <v>0.02571200377994867</v>
+        <v>0.04138402976425696</v>
       </c>
       <c r="Q5">
-        <v>10.17790443928233</v>
+        <v>16.64937423915444</v>
       </c>
       <c r="R5">
-        <v>91.60113995354098</v>
+        <v>149.84436815239</v>
       </c>
       <c r="S5">
-        <v>0.01344158260685323</v>
+        <v>0.02274431647277626</v>
       </c>
       <c r="T5">
-        <v>0.01344158260685323</v>
+        <v>0.02274431647277626</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.884421</v>
       </c>
       <c r="I6">
-        <v>0.5227746044956465</v>
+        <v>0.5495916323842472</v>
       </c>
       <c r="J6">
-        <v>0.5227746044956465</v>
+        <v>0.5495916323842472</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>202.900665</v>
       </c>
       <c r="O6">
-        <v>0.3351369029761694</v>
+        <v>0.3297460182766552</v>
       </c>
       <c r="P6">
-        <v>0.3351369029761695</v>
+        <v>0.3297460182766552</v>
       </c>
       <c r="Q6">
         <v>132.6614371155516</v>
@@ -818,10 +818,10 @@
         <v>1193.952934039965</v>
       </c>
       <c r="S6">
-        <v>0.1752010619052628</v>
+        <v>0.1812256524568727</v>
       </c>
       <c r="T6">
-        <v>0.1752010619052629</v>
+        <v>0.1812256524568727</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5.884421</v>
       </c>
       <c r="I7">
-        <v>0.5227746044956465</v>
+        <v>0.5495916323842472</v>
       </c>
       <c r="J7">
-        <v>0.5227746044956465</v>
+        <v>0.5495916323842472</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>386.958824</v>
       </c>
       <c r="O7">
-        <v>0.6391510932438819</v>
+        <v>0.6288699519590879</v>
       </c>
       <c r="P7">
-        <v>0.6391510932438819</v>
+        <v>0.6288699519590879</v>
       </c>
       <c r="Q7">
         <v>253.0031811201004</v>
@@ -880,10 +880,10 @@
         <v>2277.028630080904</v>
       </c>
       <c r="S7">
-        <v>0.3341319599835304</v>
+        <v>0.3456216634545983</v>
       </c>
       <c r="T7">
-        <v>0.3341319599835304</v>
+        <v>0.3456216634545983</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>4.767092</v>
       </c>
       <c r="I8">
-        <v>0.423510594312399</v>
+        <v>0.445235627091584</v>
       </c>
       <c r="J8">
-        <v>0.4235105943123989</v>
+        <v>0.445235627091584</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.188906999999999</v>
+        <v>8.488196666666667</v>
       </c>
       <c r="N8">
-        <v>15.566721</v>
+        <v>25.46459</v>
       </c>
       <c r="O8">
-        <v>0.02571200377994867</v>
+        <v>0.04138402976425696</v>
       </c>
       <c r="P8">
-        <v>0.02571200377994867</v>
+        <v>0.04138402976425696</v>
       </c>
       <c r="Q8">
-        <v>8.245332349481332</v>
+        <v>13.48800480803111</v>
       </c>
       <c r="R8">
-        <v>74.20799114533199</v>
+        <v>121.39204327228</v>
       </c>
       <c r="S8">
-        <v>0.01088930600180871</v>
+        <v>0.01842564444366573</v>
       </c>
       <c r="T8">
-        <v>0.01088930600180871</v>
+        <v>0.01842564444366573</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>4.767092</v>
       </c>
       <c r="I9">
-        <v>0.423510594312399</v>
+        <v>0.445235627091584</v>
       </c>
       <c r="J9">
-        <v>0.4235105943123989</v>
+        <v>0.445235627091584</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>202.900665</v>
       </c>
       <c r="O9">
-        <v>0.3351369029761694</v>
+        <v>0.3297460182766552</v>
       </c>
       <c r="P9">
-        <v>0.3351369029761695</v>
+        <v>0.3297460182766552</v>
       </c>
       <c r="Q9">
         <v>107.4717929906867</v>
@@ -1004,10 +1004,10 @@
         <v>967.24613691618</v>
       </c>
       <c r="S9">
-        <v>0.1419340289554543</v>
+        <v>0.1468146752283595</v>
       </c>
       <c r="T9">
-        <v>0.1419340289554543</v>
+        <v>0.1468146752283595</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>4.767092</v>
       </c>
       <c r="I10">
-        <v>0.423510594312399</v>
+        <v>0.445235627091584</v>
       </c>
       <c r="J10">
-        <v>0.4235105943123989</v>
+        <v>0.445235627091584</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>386.958824</v>
       </c>
       <c r="O10">
-        <v>0.6391510932438819</v>
+        <v>0.6288699519590879</v>
       </c>
       <c r="P10">
-        <v>0.6391510932438819</v>
+        <v>0.6288699519590879</v>
       </c>
       <c r="Q10">
         <v>204.9631460244231</v>
@@ -1066,10 +1066,10 @@
         <v>1844.668314219808</v>
       </c>
       <c r="S10">
-        <v>0.2706872593551359</v>
+        <v>0.2799953074195589</v>
       </c>
       <c r="T10">
-        <v>0.2706872593551359</v>
+        <v>0.2799953074195589</v>
       </c>
     </row>
   </sheetData>
